--- a/Deepnote_Results.xlsx
+++ b/Deepnote_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://setuo365-my.sharepoint.com/personal/c00159267_setu_ie/Documents/2. Cryptography/Project/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="14_{F66AA03E-6C6F-4E0E-836B-8B6B5E5731A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B20ED0-DE3C-4AB6-B642-F30D1173BAF8}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="14_{F66AA03E-6C6F-4E0E-836B-8B6B5E5731A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAED5AA-E57F-495B-84DF-C9E34179D994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{261F18E4-BC6F-446B-AA29-FEFFED214DAD}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{261F18E4-BC6F-446B-AA29-FEFFED214DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="RSA" sheetId="1" r:id="rId1"/>
@@ -12283,8 +12283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B1155-50CF-4580-B701-1CB09A3CC347}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA66" sqref="AA66"/>
+    <sheetView topLeftCell="O23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17972,8 +17972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9AE12-229B-42E7-BED9-7D4154EAAFA7}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G45" sqref="G44:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
